--- a/Table/Table_xls/c宠物相关/c宠物幻化花费表.xlsx
+++ b/Table/Table_xls/c宠物相关/c宠物幻化花费表.xlsx
@@ -1412,12 +1412,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1427,7 +1427,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1449,7 +1456,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1463,7 +1500,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1493,37 +1538,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1547,31 +1564,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,7 +1579,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,13 +1669,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,13 +1693,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,133 +1753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,6 +1782,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1807,32 +1830,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1854,6 +1853,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1862,168 +1870,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2388,7 +2381,7 @@
   <dimension ref="A1:C439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2402,10 +2395,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2413,10 +2406,10 @@
       <c r="A2" s="1">
         <v>500293</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2424,10 +2417,10 @@
       <c r="A3" s="1">
         <v>500252</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2435,10 +2428,10 @@
       <c r="A4" s="1">
         <v>500301</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2446,10 +2439,10 @@
       <c r="A5" s="1">
         <v>500260</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2457,10 +2450,10 @@
       <c r="A6" s="1">
         <v>500281</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2468,10 +2461,10 @@
       <c r="A7" s="1">
         <v>500240</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2479,10 +2472,10 @@
       <c r="A8" s="1">
         <v>500280</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2490,10 +2483,10 @@
       <c r="A9" s="1">
         <v>500239</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2501,10 +2494,10 @@
       <c r="A10" s="1">
         <v>500264</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2512,10 +2505,10 @@
       <c r="A11" s="1">
         <v>500302</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2523,10 +2516,10 @@
       <c r="A12" s="1">
         <v>500223</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2534,10 +2527,10 @@
       <c r="A13" s="1">
         <v>500272</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2545,10 +2538,10 @@
       <c r="A14" s="1">
         <v>500231</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2556,10 +2549,10 @@
       <c r="A15" s="1">
         <v>506010</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2567,10 +2560,10 @@
       <c r="A16" s="1">
         <v>500276</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2578,10 +2571,10 @@
       <c r="A17" s="1">
         <v>500235</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2589,10 +2582,10 @@
       <c r="A18" s="1">
         <v>500268</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2600,10 +2593,10 @@
       <c r="A19" s="1">
         <v>500227</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2611,10 +2604,10 @@
       <c r="A20" s="1">
         <v>500285</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2622,10 +2615,10 @@
       <c r="A21" s="1">
         <v>500244</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2633,10 +2626,10 @@
       <c r="A22" s="1">
         <v>500297</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2644,10 +2637,10 @@
       <c r="A23" s="1">
         <v>500256</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2655,10 +2648,10 @@
       <c r="A24" s="1">
         <v>500289</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2666,10 +2659,10 @@
       <c r="A25" s="1">
         <v>500248</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2677,10 +2670,10 @@
       <c r="A26" s="1">
         <v>510010</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2688,10 +2681,10 @@
       <c r="A27" s="1">
         <v>510011</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2699,10 +2692,10 @@
       <c r="A28" s="1">
         <v>510012</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2710,10 +2703,10 @@
       <c r="A29" s="1">
         <v>510013</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2721,10 +2714,10 @@
       <c r="A30" s="1">
         <v>510014</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2732,10 +2725,10 @@
       <c r="A31" s="1">
         <v>510015</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2743,10 +2736,10 @@
       <c r="A32" s="1">
         <v>500299</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2754,10 +2747,10 @@
       <c r="A33" s="1">
         <v>500157</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2765,10 +2758,10 @@
       <c r="A34" s="1">
         <v>500158</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2776,10 +2769,10 @@
       <c r="A35" s="1">
         <v>500258</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2787,10 +2780,10 @@
       <c r="A36" s="1">
         <v>500217</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2798,10 +2791,10 @@
       <c r="A37" s="1">
         <v>500218</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2809,10 +2802,10 @@
       <c r="A38" s="1">
         <v>500269</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2820,10 +2813,10 @@
       <c r="A39" s="1">
         <v>500112</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2831,10 +2824,10 @@
       <c r="A40" s="1">
         <v>500113</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2842,10 +2835,10 @@
       <c r="A41" s="1">
         <v>500114</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2853,10 +2846,10 @@
       <c r="A42" s="1">
         <v>500228</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2864,10 +2857,10 @@
       <c r="A43" s="1">
         <v>506008</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2875,10 +2868,10 @@
       <c r="A44" s="1">
         <v>500172</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2886,10 +2879,10 @@
       <c r="A45" s="1">
         <v>500173</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2897,10 +2890,10 @@
       <c r="A46" s="1">
         <v>500174</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2908,10 +2901,10 @@
       <c r="A47" s="1">
         <v>506005</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2919,10 +2912,10 @@
       <c r="A48" s="1">
         <v>500261</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2930,10 +2923,10 @@
       <c r="A49" s="1">
         <v>500100</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2941,10 +2934,10 @@
       <c r="A50" s="1">
         <v>500101</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2952,10 +2945,10 @@
       <c r="A51" s="1">
         <v>500102</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2963,10 +2956,10 @@
       <c r="A52" s="1">
         <v>506001</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2974,10 +2967,10 @@
       <c r="A53" s="1">
         <v>506002</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2985,10 +2978,10 @@
       <c r="A54" s="1">
         <v>500220</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2996,10 +2989,10 @@
       <c r="A55" s="1">
         <v>500160</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3007,10 +3000,10 @@
       <c r="A56" s="1">
         <v>500161</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3018,10 +3011,10 @@
       <c r="A57" s="1">
         <v>500162</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3029,10 +3022,10 @@
       <c r="A58" s="1">
         <v>500267</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3040,10 +3033,10 @@
       <c r="A59" s="1">
         <v>500111</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3051,10 +3044,10 @@
       <c r="A60" s="1">
         <v>500226</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3062,10 +3055,10 @@
       <c r="A61" s="1">
         <v>506007</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3073,10 +3066,10 @@
       <c r="A62" s="1">
         <v>506013</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3084,10 +3077,10 @@
       <c r="A63" s="1">
         <v>500171</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3095,10 +3088,10 @@
       <c r="A64" s="1">
         <v>500300</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3106,10 +3099,10 @@
       <c r="A65" s="1">
         <v>500159</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3117,10 +3110,10 @@
       <c r="A66" s="1">
         <v>500259</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3128,10 +3121,10 @@
       <c r="A67" s="1">
         <v>500219</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3139,10 +3132,10 @@
       <c r="A68" s="1">
         <v>500290</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3150,10 +3143,10 @@
       <c r="A69" s="1">
         <v>500142</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3161,10 +3154,10 @@
       <c r="A70" s="1">
         <v>500143</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3172,10 +3165,10 @@
       <c r="A71" s="1">
         <v>500144</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3183,10 +3176,10 @@
       <c r="A72" s="1">
         <v>500249</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3194,10 +3187,10 @@
       <c r="A73" s="1">
         <v>500202</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3205,10 +3198,10 @@
       <c r="A74" s="1">
         <v>500203</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3216,10 +3209,10 @@
       <c r="A75" s="1">
         <v>500204</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3227,10 +3220,10 @@
       <c r="A76" s="1">
         <v>500277</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3238,10 +3231,10 @@
       <c r="A77" s="1">
         <v>500124</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3249,10 +3242,10 @@
       <c r="A78" s="1">
         <v>500125</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3260,10 +3253,10 @@
       <c r="A79" s="1">
         <v>500126</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3271,10 +3264,10 @@
       <c r="A80" s="1">
         <v>500236</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3282,10 +3275,10 @@
       <c r="A81" s="1">
         <v>500184</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3293,10 +3286,10 @@
       <c r="A82" s="1">
         <v>500185</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3304,10 +3297,10 @@
       <c r="A83" s="1">
         <v>500186</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3315,10 +3308,10 @@
       <c r="A84" s="1">
         <v>500265</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3326,10 +3319,10 @@
       <c r="A85" s="1">
         <v>500106</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3337,10 +3330,10 @@
       <c r="A86" s="1">
         <v>500107</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3348,10 +3341,10 @@
       <c r="A87" s="1">
         <v>500108</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3359,10 +3352,10 @@
       <c r="A88" s="1">
         <v>500224</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3370,10 +3363,10 @@
       <c r="A89" s="1">
         <v>500166</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3381,10 +3374,10 @@
       <c r="A90" s="1">
         <v>500167</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3392,10 +3385,10 @@
       <c r="A91" s="1">
         <v>500168</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3403,10 +3396,10 @@
       <c r="A92" s="1">
         <v>500279</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3414,10 +3407,10 @@
       <c r="A93" s="1">
         <v>500129</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3425,10 +3418,10 @@
       <c r="A94" s="1">
         <v>500238</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3436,10 +3429,10 @@
       <c r="A95" s="1">
         <v>500291</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3447,10 +3440,10 @@
       <c r="A96" s="1">
         <v>500145</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3458,10 +3451,10 @@
       <c r="A97" s="1">
         <v>500146</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3469,10 +3462,10 @@
       <c r="A98" s="1">
         <v>500250</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3480,10 +3473,10 @@
       <c r="A99" s="1">
         <v>500205</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3491,10 +3484,10 @@
       <c r="A100" s="1">
         <v>500206</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3502,10 +3495,10 @@
       <c r="A101" s="1">
         <v>500189</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3513,10 +3506,10 @@
       <c r="A102" s="1">
         <v>500275</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3524,10 +3517,10 @@
       <c r="A103" s="1">
         <v>500123</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3535,10 +3528,10 @@
       <c r="A104" s="1">
         <v>500234</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3546,10 +3539,10 @@
       <c r="A105" s="1">
         <v>500183</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3557,10 +3550,10 @@
       <c r="A106" s="1">
         <v>500292</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3568,10 +3561,10 @@
       <c r="A107" s="1">
         <v>500147</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3579,10 +3572,10 @@
       <c r="A108" s="1">
         <v>500251</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3590,10 +3583,10 @@
       <c r="A109" s="1">
         <v>500207</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3601,10 +3594,10 @@
       <c r="A110" s="1">
         <v>500262</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3612,10 +3605,10 @@
       <c r="A111" s="1">
         <v>500103</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3623,10 +3616,10 @@
       <c r="A112" s="1">
         <v>500104</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3634,10 +3627,10 @@
       <c r="A113" s="1">
         <v>500221</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3645,10 +3638,10 @@
       <c r="A114" s="1">
         <v>506003</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3656,10 +3649,10 @@
       <c r="A115" s="1">
         <v>506004</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3667,10 +3660,10 @@
       <c r="A116" s="1">
         <v>500163</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3678,10 +3671,10 @@
       <c r="A117" s="1">
         <v>500164</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3689,10 +3682,10 @@
       <c r="A118" s="1">
         <v>500274</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3700,10 +3693,10 @@
       <c r="A119" s="1">
         <v>500121</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3711,10 +3704,10 @@
       <c r="A120" s="1">
         <v>500122</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3722,10 +3715,10 @@
       <c r="A121" s="1">
         <v>500233</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3733,10 +3726,10 @@
       <c r="A122" s="1">
         <v>500181</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3744,10 +3737,10 @@
       <c r="A123" s="1">
         <v>500182</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3755,10 +3748,10 @@
       <c r="A124" s="1">
         <v>500282</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3766,10 +3759,10 @@
       <c r="A125" s="1">
         <v>500130</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3777,10 +3770,10 @@
       <c r="A126" s="1">
         <v>500131</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3788,10 +3781,10 @@
       <c r="A127" s="1">
         <v>500132</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3799,10 +3792,10 @@
       <c r="A128" s="1">
         <v>500241</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3810,10 +3803,10 @@
       <c r="A129" s="1">
         <v>500190</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3821,10 +3814,10 @@
       <c r="A130" s="1">
         <v>500191</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3832,10 +3825,10 @@
       <c r="A131" s="1">
         <v>500192</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3843,10 +3836,10 @@
       <c r="A132" s="1">
         <v>500278</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3854,10 +3847,10 @@
       <c r="A133" s="1">
         <v>500127</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3865,10 +3858,10 @@
       <c r="A134" s="1">
         <v>500128</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3876,10 +3869,10 @@
       <c r="A135" s="1">
         <v>500237</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3887,10 +3880,10 @@
       <c r="A136" s="1">
         <v>500187</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3898,10 +3891,10 @@
       <c r="A137" s="1">
         <v>500188</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3909,10 +3902,10 @@
       <c r="A138" s="1">
         <v>500294</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3920,10 +3913,10 @@
       <c r="A139" s="1">
         <v>500148</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3931,10 +3924,10 @@
       <c r="A140" s="1">
         <v>500149</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3942,10 +3935,10 @@
       <c r="A141" s="1">
         <v>500150</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3953,10 +3946,10 @@
       <c r="A142" s="1">
         <v>500253</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3964,10 +3957,10 @@
       <c r="A143" s="1">
         <v>500208</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3975,10 +3968,10 @@
       <c r="A144" s="1">
         <v>500209</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3986,10 +3979,10 @@
       <c r="A145" s="1">
         <v>500210</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3997,10 +3990,10 @@
       <c r="A146" s="1">
         <v>500295</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4008,10 +4001,10 @@
       <c r="A147" s="1">
         <v>500151</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4019,10 +4012,10 @@
       <c r="A148" s="1">
         <v>500152</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4030,10 +4023,10 @@
       <c r="A149" s="1">
         <v>500254</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4041,10 +4034,10 @@
       <c r="A150" s="1">
         <v>500211</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4052,10 +4045,10 @@
       <c r="A151" s="1">
         <v>500212</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4063,10 +4056,10 @@
       <c r="A152" s="1">
         <v>500284</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4074,10 +4067,10 @@
       <c r="A153" s="1">
         <v>500135</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4085,10 +4078,10 @@
       <c r="A154" s="1">
         <v>500243</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4096,10 +4089,10 @@
       <c r="A155" s="1">
         <v>500195</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4107,10 +4100,10 @@
       <c r="A156" s="1">
         <v>506009</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4118,10 +4111,10 @@
       <c r="A157" s="1">
         <v>500270</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4129,10 +4122,10 @@
       <c r="A158" s="1">
         <v>500115</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4140,10 +4133,10 @@
       <c r="A159" s="1">
         <v>500116</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4151,10 +4144,10 @@
       <c r="A160" s="1">
         <v>500229</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4162,10 +4155,10 @@
       <c r="A161" s="1">
         <v>500175</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4173,10 +4166,10 @@
       <c r="A162" s="1">
         <v>500176</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4184,10 +4177,10 @@
       <c r="A163" s="1">
         <v>500271</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4195,10 +4188,10 @@
       <c r="A164" s="1">
         <v>510004</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4206,10 +4199,10 @@
       <c r="A165" s="1">
         <v>500117</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4217,10 +4210,10 @@
       <c r="A166" s="1">
         <v>510001</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4228,10 +4221,10 @@
       <c r="A167" s="1">
         <v>500230</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4239,10 +4232,10 @@
       <c r="A168" s="1">
         <v>510003</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4250,10 +4243,10 @@
       <c r="A169" s="1">
         <v>500177</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4261,10 +4254,10 @@
       <c r="A170" s="1">
         <v>510002</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4272,10 +4265,10 @@
       <c r="A171" s="1">
         <v>500263</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4283,10 +4276,10 @@
       <c r="A172" s="1">
         <v>506011</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4294,10 +4287,10 @@
       <c r="A173" s="1">
         <v>500105</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4305,10 +4298,10 @@
       <c r="A174" s="1">
         <v>500222</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4316,10 +4309,10 @@
       <c r="A175" s="1">
         <v>500165</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4327,10 +4320,10 @@
       <c r="A176" s="1">
         <v>500296</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4338,10 +4331,10 @@
       <c r="A177" s="1">
         <v>500153</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4349,10 +4342,10 @@
       <c r="A178" s="1">
         <v>500255</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4360,10 +4353,10 @@
       <c r="A179" s="1">
         <v>500213</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4371,10 +4364,10 @@
       <c r="A180" s="1">
         <v>500286</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4382,10 +4375,10 @@
       <c r="A181" s="1">
         <v>500136</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4393,10 +4386,10 @@
       <c r="A182" s="1">
         <v>500137</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4404,10 +4397,10 @@
       <c r="A183" s="1">
         <v>500138</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4415,10 +4408,10 @@
       <c r="A184" s="1">
         <v>500245</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4426,10 +4419,10 @@
       <c r="A185" s="1">
         <v>500196</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4437,10 +4430,10 @@
       <c r="A186" s="1">
         <v>500197</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4448,10 +4441,10 @@
       <c r="A187" s="1">
         <v>500198</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4459,10 +4452,10 @@
       <c r="A188" s="1">
         <v>500283</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4470,10 +4463,10 @@
       <c r="A189" s="1">
         <v>500133</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4481,10 +4474,10 @@
       <c r="A190" s="1">
         <v>500134</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4492,10 +4485,10 @@
       <c r="A191" s="1">
         <v>500242</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4503,10 +4496,10 @@
       <c r="A192" s="1">
         <v>500193</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4514,10 +4507,10 @@
       <c r="A193" s="1">
         <v>500194</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4525,10 +4518,10 @@
       <c r="A194" s="1">
         <v>500287</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4536,10 +4529,10 @@
       <c r="A195" s="1">
         <v>500139</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4547,10 +4540,10 @@
       <c r="A196" s="1">
         <v>500140</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4558,10 +4551,10 @@
       <c r="A197" s="1">
         <v>500246</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4569,10 +4562,10 @@
       <c r="A198" s="1">
         <v>500199</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4580,10 +4573,10 @@
       <c r="A199" s="1">
         <v>500200</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4591,10 +4584,10 @@
       <c r="A200" s="1">
         <v>500273</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4602,10 +4595,10 @@
       <c r="A201" s="1">
         <v>500118</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4613,10 +4606,10 @@
       <c r="A202" s="1">
         <v>500119</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4624,10 +4617,10 @@
       <c r="A203" s="1">
         <v>500120</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4635,10 +4628,10 @@
       <c r="A204" s="1">
         <v>500232</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4646,10 +4639,10 @@
       <c r="A205" s="1">
         <v>500178</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4657,10 +4650,10 @@
       <c r="A206" s="1">
         <v>500179</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4668,10 +4661,10 @@
       <c r="A207" s="1">
         <v>500180</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4679,10 +4672,10 @@
       <c r="A208" s="1">
         <v>500288</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4690,10 +4683,10 @@
       <c r="A209" s="1">
         <v>500141</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4701,10 +4694,10 @@
       <c r="A210" s="1">
         <v>500247</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4712,10 +4705,10 @@
       <c r="A211" s="1">
         <v>500201</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4723,10 +4716,10 @@
       <c r="A212" s="1">
         <v>500266</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4734,10 +4727,10 @@
       <c r="A213" s="1">
         <v>500109</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4745,10 +4738,10 @@
       <c r="A214" s="1">
         <v>500110</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4756,10 +4749,10 @@
       <c r="A215" s="1">
         <v>500225</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4767,10 +4760,10 @@
       <c r="A216" s="1">
         <v>506006</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4778,10 +4771,10 @@
       <c r="A217" s="1">
         <v>506012</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4789,10 +4782,10 @@
       <c r="A218" s="1">
         <v>500169</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4800,10 +4793,10 @@
       <c r="A219" s="1">
         <v>500170</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4811,10 +4804,10 @@
       <c r="A220" s="1">
         <v>500298</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4822,10 +4815,10 @@
       <c r="A221" s="1">
         <v>500154</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4833,10 +4826,10 @@
       <c r="A222" s="1">
         <v>500155</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4844,10 +4837,10 @@
       <c r="A223" s="1">
         <v>500156</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4855,10 +4848,10 @@
       <c r="A224" s="1">
         <v>500257</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4866,10 +4859,10 @@
       <c r="A225" s="1">
         <v>500214</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4877,10 +4870,10 @@
       <c r="A226" s="1">
         <v>500215</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4888,10 +4881,10 @@
       <c r="A227" s="1">
         <v>500216</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4899,10 +4892,10 @@
       <c r="A228" s="1">
         <v>530000</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4910,10 +4903,10 @@
       <c r="A229" s="1">
         <v>530001</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4921,10 +4914,10 @@
       <c r="A230" s="1">
         <v>530002</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4932,10 +4925,10 @@
       <c r="A231" s="1">
         <v>530003</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4943,10 +4936,10 @@
       <c r="A232" s="1">
         <v>530004</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4954,10 +4947,10 @@
       <c r="A233" s="1">
         <v>530005</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4965,10 +4958,10 @@
       <c r="A234" s="1">
         <v>530006</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4976,10 +4969,10 @@
       <c r="A235" s="1">
         <v>530007</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4987,10 +4980,10 @@
       <c r="A236" s="1">
         <v>530008</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4998,10 +4991,10 @@
       <c r="A237" s="1">
         <v>530009</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5009,10 +5002,10 @@
       <c r="A238" s="1">
         <v>530010</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5020,10 +5013,10 @@
       <c r="A239" s="1">
         <v>530011</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5031,10 +5024,10 @@
       <c r="A240" s="1">
         <v>530012</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5042,10 +5035,10 @@
       <c r="A241" s="1">
         <v>530013</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5053,10 +5046,10 @@
       <c r="A242" s="1">
         <v>530014</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5064,10 +5057,10 @@
       <c r="A243" s="1">
         <v>530015</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5075,10 +5068,10 @@
       <c r="A244" s="1">
         <v>530016</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5086,10 +5079,10 @@
       <c r="A245" s="1">
         <v>530017</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5097,10 +5090,10 @@
       <c r="A246" s="1">
         <v>530018</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5108,10 +5101,10 @@
       <c r="A247" s="1">
         <v>530019</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5119,10 +5112,10 @@
       <c r="A248" s="1">
         <v>530020</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5130,10 +5123,10 @@
       <c r="A249" s="1">
         <v>530021</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5141,10 +5134,10 @@
       <c r="A250" s="1">
         <v>530022</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5152,10 +5145,10 @@
       <c r="A251" s="1">
         <v>530023</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5163,10 +5156,10 @@
       <c r="A252" s="1">
         <v>530024</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5174,10 +5167,10 @@
       <c r="A253" s="1">
         <v>530025</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5185,10 +5178,10 @@
       <c r="A254" s="1">
         <v>530026</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5196,10 +5189,10 @@
       <c r="A255" s="1">
         <v>530027</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5207,10 +5200,10 @@
       <c r="A256" s="1">
         <v>530028</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5218,10 +5211,10 @@
       <c r="A257" s="1">
         <v>530029</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5229,10 +5222,10 @@
       <c r="A258" s="1">
         <v>530030</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5240,10 +5233,10 @@
       <c r="A259" s="1">
         <v>530031</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5251,10 +5244,10 @@
       <c r="A260" s="1">
         <v>530032</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5262,10 +5255,10 @@
       <c r="A261" s="1">
         <v>530033</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5273,10 +5266,10 @@
       <c r="A262" s="1">
         <v>530034</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5284,10 +5277,10 @@
       <c r="A263" s="1">
         <v>530035</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5295,10 +5288,10 @@
       <c r="A264" s="1">
         <v>530036</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5306,10 +5299,10 @@
       <c r="A265" s="1">
         <v>530037</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5317,10 +5310,10 @@
       <c r="A266" s="1">
         <v>530038</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5328,10 +5321,10 @@
       <c r="A267" s="1">
         <v>530039</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5339,10 +5332,10 @@
       <c r="A268" s="1">
         <v>530040</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5350,10 +5343,10 @@
       <c r="A269" s="1">
         <v>530041</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5361,10 +5354,10 @@
       <c r="A270" s="1">
         <v>530042</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5372,10 +5365,10 @@
       <c r="A271" s="1">
         <v>530043</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5383,10 +5376,10 @@
       <c r="A272" s="1">
         <v>530044</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5394,10 +5387,10 @@
       <c r="A273" s="1">
         <v>530045</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C273" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5405,10 +5398,10 @@
       <c r="A274" s="1">
         <v>530046</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5416,10 +5409,10 @@
       <c r="A275" s="1">
         <v>530047</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C275" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5427,10 +5420,10 @@
       <c r="A276" s="1">
         <v>530048</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5438,10 +5431,10 @@
       <c r="A277" s="1">
         <v>530049</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5449,10 +5442,10 @@
       <c r="A278" s="1">
         <v>530050</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5460,10 +5453,10 @@
       <c r="A279" s="1">
         <v>530051</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5471,10 +5464,10 @@
       <c r="A280" s="1">
         <v>530052</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5482,10 +5475,10 @@
       <c r="A281" s="1">
         <v>530053</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5493,10 +5486,10 @@
       <c r="A282" s="1">
         <v>530054</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5504,10 +5497,10 @@
       <c r="A283" s="1">
         <v>530055</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5515,10 +5508,10 @@
       <c r="A284" s="1">
         <v>530056</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5526,10 +5519,10 @@
       <c r="A285" s="1">
         <v>530057</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5537,10 +5530,10 @@
       <c r="A286" s="1">
         <v>530058</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5548,10 +5541,10 @@
       <c r="A287" s="1">
         <v>530059</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5559,10 +5552,10 @@
       <c r="A288" s="1">
         <v>530060</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5570,10 +5563,10 @@
       <c r="A289" s="1">
         <v>530061</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C289" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5581,10 +5574,10 @@
       <c r="A290" s="1">
         <v>530062</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C290" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5592,10 +5585,10 @@
       <c r="A291" s="1">
         <v>530063</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5603,10 +5596,10 @@
       <c r="A292" s="1">
         <v>530064</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5614,10 +5607,10 @@
       <c r="A293" s="1">
         <v>530065</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C293" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5625,10 +5618,10 @@
       <c r="A294" s="1">
         <v>530066</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5636,10 +5629,10 @@
       <c r="A295" s="1">
         <v>530067</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B295" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C295" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5647,10 +5640,10 @@
       <c r="A296" s="1">
         <v>530068</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B296" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C296" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5658,10 +5651,10 @@
       <c r="A297" s="1">
         <v>530069</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C297" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5669,10 +5662,10 @@
       <c r="A298" s="1">
         <v>530070</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B298" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C298" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5680,10 +5673,10 @@
       <c r="A299" s="1">
         <v>530071</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5691,10 +5684,10 @@
       <c r="A300" s="1">
         <v>530072</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B300" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C300" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5702,10 +5695,10 @@
       <c r="A301" s="1">
         <v>530073</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5713,10 +5706,10 @@
       <c r="A302" s="1">
         <v>530074</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C302" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5724,10 +5717,10 @@
       <c r="A303" s="1">
         <v>530075</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C303" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5735,10 +5728,10 @@
       <c r="A304" s="1">
         <v>530076</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B304" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C304" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5746,10 +5739,10 @@
       <c r="A305" s="1">
         <v>530077</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C305" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5757,10 +5750,10 @@
       <c r="A306" s="1">
         <v>530078</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C306" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5768,10 +5761,10 @@
       <c r="A307" s="1">
         <v>530079</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="C307" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5779,10 +5772,10 @@
       <c r="A308" s="1">
         <v>530080</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="C308" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5790,10 +5783,10 @@
       <c r="A309" s="1">
         <v>530081</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C309" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5801,10 +5794,10 @@
       <c r="A310" s="1">
         <v>530082</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B310" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="C310" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5812,10 +5805,10 @@
       <c r="A311" s="1">
         <v>530083</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B311" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="C311" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5823,10 +5816,10 @@
       <c r="A312" s="1">
         <v>530084</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B312" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="C312" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5834,10 +5827,10 @@
       <c r="A313" s="1">
         <v>530085</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C313" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5845,10 +5838,10 @@
       <c r="A314" s="1">
         <v>530086</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B314" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C314" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5856,10 +5849,10 @@
       <c r="A315" s="1">
         <v>530087</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B315" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C315" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5867,10 +5860,10 @@
       <c r="A316" s="1">
         <v>530088</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="C316" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5878,10 +5871,10 @@
       <c r="A317" s="1">
         <v>530089</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C317" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5889,10 +5882,10 @@
       <c r="A318" s="1">
         <v>530090</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B318" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="C318" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5900,10 +5893,10 @@
       <c r="A319" s="1">
         <v>530091</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="C319" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5911,10 +5904,10 @@
       <c r="A320" s="1">
         <v>530092</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B320" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C320" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5922,10 +5915,10 @@
       <c r="A321" s="1">
         <v>530093</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="C321" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5933,10 +5926,10 @@
       <c r="A322" s="1">
         <v>530094</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C322" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5944,10 +5937,10 @@
       <c r="A323" s="1">
         <v>530095</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C323" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5955,10 +5948,10 @@
       <c r="A324" s="1">
         <v>530096</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="C324" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5966,10 +5959,10 @@
       <c r="A325" s="1">
         <v>530097</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="C325" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5977,10 +5970,10 @@
       <c r="A326" s="1">
         <v>530098</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="C326" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5988,10 +5981,10 @@
       <c r="A327" s="1">
         <v>530099</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="C327" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5999,10 +5992,10 @@
       <c r="A328" s="1">
         <v>530100</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B328" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C328" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6010,10 +6003,10 @@
       <c r="A329" s="1">
         <v>530101</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B329" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C329" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6021,10 +6014,10 @@
       <c r="A330" s="1">
         <v>530102</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B330" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="C330" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6032,10 +6025,10 @@
       <c r="A331" s="1">
         <v>530103</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="C331" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6043,10 +6036,10 @@
       <c r="A332" s="1">
         <v>530104</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="C332" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6054,10 +6047,10 @@
       <c r="A333" s="1">
         <v>530105</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="C333" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6065,10 +6058,10 @@
       <c r="A334" s="1">
         <v>530106</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C334" s="2" t="s">
+      <c r="C334" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6076,10 +6069,10 @@
       <c r="A335" s="1">
         <v>530107</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B335" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C335" s="2" t="s">
+      <c r="C335" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6087,10 +6080,10 @@
       <c r="A336" s="1">
         <v>530108</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C336" s="2" t="s">
+      <c r="C336" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6098,10 +6091,10 @@
       <c r="A337" s="1">
         <v>530109</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C337" s="2" t="s">
+      <c r="C337" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6109,10 +6102,10 @@
       <c r="A338" s="1">
         <v>530110</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B338" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C338" s="2" t="s">
+      <c r="C338" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6120,10 +6113,10 @@
       <c r="A339" s="1">
         <v>530111</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C339" s="2" t="s">
+      <c r="C339" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6131,10 +6124,10 @@
       <c r="A340" s="1">
         <v>530112</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C340" s="2" t="s">
+      <c r="C340" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6142,10 +6135,10 @@
       <c r="A341" s="1">
         <v>530113</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C341" s="2" t="s">
+      <c r="C341" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6153,10 +6146,10 @@
       <c r="A342" s="1">
         <v>530114</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C342" s="2" t="s">
+      <c r="C342" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6164,10 +6157,10 @@
       <c r="A343" s="1">
         <v>530115</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C343" s="2" t="s">
+      <c r="C343" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6175,10 +6168,10 @@
       <c r="A344" s="1">
         <v>530116</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C344" s="2" t="s">
+      <c r="C344" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6186,10 +6179,10 @@
       <c r="A345" s="1">
         <v>530117</v>
       </c>
-      <c r="B345" s="2" t="s">
+      <c r="B345" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C345" s="2" t="s">
+      <c r="C345" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6197,10 +6190,10 @@
       <c r="A346" s="1">
         <v>530118</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B346" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C346" s="2" t="s">
+      <c r="C346" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6208,10 +6201,10 @@
       <c r="A347" s="1">
         <v>530119</v>
       </c>
-      <c r="B347" s="2" t="s">
+      <c r="B347" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C347" s="2" t="s">
+      <c r="C347" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6219,10 +6212,10 @@
       <c r="A348" s="1">
         <v>530120</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B348" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C348" s="2" t="s">
+      <c r="C348" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6230,10 +6223,10 @@
       <c r="A349" s="1">
         <v>530121</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B349" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C349" s="2" t="s">
+      <c r="C349" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6241,10 +6234,10 @@
       <c r="A350" s="1">
         <v>530122</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B350" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C350" s="2" t="s">
+      <c r="C350" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6252,10 +6245,10 @@
       <c r="A351" s="1">
         <v>530123</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C351" s="2" t="s">
+      <c r="C351" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6263,10 +6256,10 @@
       <c r="A352" s="1">
         <v>530124</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B352" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C352" s="2" t="s">
+      <c r="C352" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6274,10 +6267,10 @@
       <c r="A353" s="1">
         <v>530125</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C353" s="2" t="s">
+      <c r="C353" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6285,10 +6278,10 @@
       <c r="A354" s="1">
         <v>530126</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C354" s="2" t="s">
+      <c r="C354" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6296,10 +6289,10 @@
       <c r="A355" s="1">
         <v>530127</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B355" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C355" s="2" t="s">
+      <c r="C355" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6307,10 +6300,10 @@
       <c r="A356" s="1">
         <v>530128</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C356" s="2" t="s">
+      <c r="C356" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6318,10 +6311,10 @@
       <c r="A357" s="1">
         <v>530129</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="C357" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6329,10 +6322,10 @@
       <c r="A358" s="1">
         <v>530130</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B358" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C358" s="2" t="s">
+      <c r="C358" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6340,10 +6333,10 @@
       <c r="A359" s="1">
         <v>530131</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="C359" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6351,10 +6344,10 @@
       <c r="A360" s="1">
         <v>530132</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C360" s="2" t="s">
+      <c r="C360" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6362,10 +6355,10 @@
       <c r="A361" s="1">
         <v>530133</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B361" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C361" s="2" t="s">
+      <c r="C361" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6373,10 +6366,10 @@
       <c r="A362" s="1">
         <v>530134</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="C362" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6384,10 +6377,10 @@
       <c r="A363" s="1">
         <v>530135</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B363" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C363" s="2" t="s">
+      <c r="C363" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6395,10 +6388,10 @@
       <c r="A364" s="1">
         <v>530136</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C364" s="2" t="s">
+      <c r="C364" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6406,10 +6399,10 @@
       <c r="A365" s="1">
         <v>530137</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C365" s="2" t="s">
+      <c r="C365" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6417,10 +6410,10 @@
       <c r="A366" s="1">
         <v>530138</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B366" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C366" s="2" t="s">
+      <c r="C366" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6428,10 +6421,10 @@
       <c r="A367" s="1">
         <v>530139</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B367" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C367" s="2" t="s">
+      <c r="C367" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6439,10 +6432,10 @@
       <c r="A368" s="1">
         <v>530140</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="C368" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6450,10 +6443,10 @@
       <c r="A369" s="1">
         <v>530141</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C369" s="2" t="s">
+      <c r="C369" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6461,10 +6454,10 @@
       <c r="A370" s="1">
         <v>530142</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C370" s="2" t="s">
+      <c r="C370" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6472,10 +6465,10 @@
       <c r="A371" s="1">
         <v>530143</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C371" s="2" t="s">
+      <c r="C371" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6483,10 +6476,10 @@
       <c r="A372" s="1">
         <v>530144</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C372" s="2" t="s">
+      <c r="C372" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6494,10 +6487,10 @@
       <c r="A373" s="1">
         <v>530145</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C373" s="2" t="s">
+      <c r="C373" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6505,10 +6498,10 @@
       <c r="A374" s="1">
         <v>530146</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C374" s="2" t="s">
+      <c r="C374" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6516,10 +6509,10 @@
       <c r="A375" s="1">
         <v>530147</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C375" s="2" t="s">
+      <c r="C375" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6527,10 +6520,10 @@
       <c r="A376" s="1">
         <v>530152</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C376" s="2" t="s">
+      <c r="C376" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6538,10 +6531,10 @@
       <c r="A377" s="1">
         <v>530149</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C377" s="2" t="s">
+      <c r="C377" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6549,10 +6542,10 @@
       <c r="A378" s="1">
         <v>530150</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B378" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C378" s="2" t="s">
+      <c r="C378" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6560,10 +6553,10 @@
       <c r="A379" s="1">
         <v>530151</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C379" s="2" t="s">
+      <c r="C379" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6571,10 +6564,10 @@
       <c r="A380" s="1">
         <v>530157</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C380" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6582,10 +6575,10 @@
       <c r="A381" s="1">
         <v>530158</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B381" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C381" s="2" t="s">
+      <c r="C381" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6593,10 +6586,10 @@
       <c r="A382" s="1">
         <v>530159</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C382" s="2" t="s">
+      <c r="C382" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6604,10 +6597,10 @@
       <c r="A383" s="1">
         <v>530160</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C383" s="2" t="s">
+      <c r="C383" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6615,10 +6608,10 @@
       <c r="A384" s="1">
         <v>530161</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C384" s="2" t="s">
+      <c r="C384" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6626,10 +6619,10 @@
       <c r="A385" s="1">
         <v>530162</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C385" s="2" t="s">
+      <c r="C385" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6637,10 +6630,10 @@
       <c r="A386" s="1">
         <v>530163</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C386" s="2" t="s">
+      <c r="C386" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6648,10 +6641,10 @@
       <c r="A387" s="1">
         <v>530164</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B387" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C387" s="2" t="s">
+      <c r="C387" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6659,10 +6652,10 @@
       <c r="A388" s="1">
         <v>530165</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B388" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C388" s="2" t="s">
+      <c r="C388" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6670,10 +6663,10 @@
       <c r="A389" s="1">
         <v>530166</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C389" s="2" t="s">
+      <c r="C389" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6681,10 +6674,10 @@
       <c r="A390" s="1">
         <v>900001</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C390" s="2" t="s">
+      <c r="C390" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6692,10 +6685,10 @@
       <c r="A391" s="1">
         <v>900002</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B391" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C391" s="2" t="s">
+      <c r="C391" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6703,10 +6696,10 @@
       <c r="A392" s="1">
         <v>900003</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B392" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C392" s="2" t="s">
+      <c r="C392" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6714,10 +6707,10 @@
       <c r="A393" s="1">
         <v>900004</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B393" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C393" s="2" t="s">
+      <c r="C393" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6725,10 +6718,10 @@
       <c r="A394" s="1">
         <v>900005</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C394" s="2" t="s">
+      <c r="C394" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6736,10 +6729,10 @@
       <c r="A395" s="1">
         <v>900006</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B395" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C395" s="2" t="s">
+      <c r="C395" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6747,10 +6740,10 @@
       <c r="A396" s="1">
         <v>900007</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B396" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C396" s="2" t="s">
+      <c r="C396" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6758,10 +6751,10 @@
       <c r="A397" s="1">
         <v>900008</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C397" s="2" t="s">
+      <c r="C397" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6769,10 +6762,10 @@
       <c r="A398" s="1">
         <v>900009</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C398" s="2" t="s">
+      <c r="C398" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6780,10 +6773,10 @@
       <c r="A399" s="1">
         <v>900010</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C399" s="2" t="s">
+      <c r="C399" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6791,10 +6784,10 @@
       <c r="A400" s="1">
         <v>900011</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B400" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C400" s="2" t="s">
+      <c r="C400" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6802,10 +6795,10 @@
       <c r="A401" s="1">
         <v>900012</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B401" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C401" s="2" t="s">
+      <c r="C401" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6813,10 +6806,10 @@
       <c r="A402" s="1">
         <v>900013</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B402" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C402" s="2" t="s">
+      <c r="C402" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6824,10 +6817,10 @@
       <c r="A403" s="1">
         <v>900014</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B403" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C403" s="2" t="s">
+      <c r="C403" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6835,10 +6828,10 @@
       <c r="A404" s="1">
         <v>900015</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B404" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C404" s="2" t="s">
+      <c r="C404" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6846,10 +6839,10 @@
       <c r="A405" s="1">
         <v>900016</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B405" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C405" s="2" t="s">
+      <c r="C405" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6857,10 +6850,10 @@
       <c r="A406" s="1">
         <v>900017</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B406" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C406" s="2" t="s">
+      <c r="C406" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6868,10 +6861,10 @@
       <c r="A407" s="1">
         <v>900018</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B407" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C407" s="2" t="s">
+      <c r="C407" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6879,10 +6872,10 @@
       <c r="A408" s="1">
         <v>900019</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B408" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C408" s="2" t="s">
+      <c r="C408" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6890,10 +6883,10 @@
       <c r="A409" s="1">
         <v>900020</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B409" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C409" s="2" t="s">
+      <c r="C409" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6901,10 +6894,10 @@
       <c r="A410" s="1">
         <v>999999</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B410" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C410" s="2" t="s">
+      <c r="C410" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6912,10 +6905,10 @@
       <c r="A411" s="1">
         <v>999998</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B411" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C411" s="2" t="s">
+      <c r="C411" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6923,10 +6916,10 @@
       <c r="A412" s="1">
         <v>999997</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B412" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C412" s="2" t="s">
+      <c r="C412" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6934,10 +6927,10 @@
       <c r="A413" s="1">
         <v>999996</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B413" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C413" s="2" t="s">
+      <c r="C413" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6945,10 +6938,10 @@
       <c r="A414" s="1">
         <v>999995</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B414" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C414" s="2" t="s">
+      <c r="C414" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6956,10 +6949,10 @@
       <c r="A415" s="1">
         <v>999994</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B415" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C415" s="2" t="s">
+      <c r="C415" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6967,10 +6960,10 @@
       <c r="A416" s="1">
         <v>999980</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B416" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C416" s="2" t="s">
+      <c r="C416" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6978,10 +6971,10 @@
       <c r="A417" s="1">
         <v>999981</v>
       </c>
-      <c r="B417" s="2" t="s">
+      <c r="B417" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C417" s="2" t="s">
+      <c r="C417" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6989,10 +6982,10 @@
       <c r="A418" s="1">
         <v>999982</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B418" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C418" s="2" t="s">
+      <c r="C418" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7000,10 +6993,10 @@
       <c r="A419" s="1">
         <v>999983</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B419" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C419" s="2" t="s">
+      <c r="C419" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7011,10 +7004,10 @@
       <c r="A420" s="1">
         <v>999984</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="B420" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C420" s="2" t="s">
+      <c r="C420" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7022,10 +7015,10 @@
       <c r="A421" s="1">
         <v>999985</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B421" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C421" s="2" t="s">
+      <c r="C421" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7033,10 +7026,10 @@
       <c r="A422" s="1">
         <v>999986</v>
       </c>
-      <c r="B422" s="2" t="s">
+      <c r="B422" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C422" s="2" t="s">
+      <c r="C422" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7044,10 +7037,10 @@
       <c r="A423" s="1">
         <v>999987</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B423" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C423" s="2" t="s">
+      <c r="C423" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7055,10 +7048,10 @@
       <c r="A424" s="1">
         <v>999988</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C424" s="2" t="s">
+      <c r="C424" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7066,10 +7059,10 @@
       <c r="A425" s="1">
         <v>888888</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="B425" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C425" s="2" t="s">
+      <c r="C425" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7077,10 +7070,10 @@
       <c r="A426" s="1">
         <v>888889</v>
       </c>
-      <c r="B426" s="2" t="s">
+      <c r="B426" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C426" s="2" t="s">
+      <c r="C426" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7088,10 +7081,10 @@
       <c r="A427" s="1">
         <v>888890</v>
       </c>
-      <c r="B427" s="2" t="s">
+      <c r="B427" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C427" s="2" t="s">
+      <c r="C427" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7099,10 +7092,10 @@
       <c r="A428" s="1">
         <v>888891</v>
       </c>
-      <c r="B428" s="2" t="s">
+      <c r="B428" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C428" s="2" t="s">
+      <c r="C428" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7110,10 +7103,10 @@
       <c r="A429" s="1">
         <v>888892</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="B429" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C429" s="2" t="s">
+      <c r="C429" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7121,10 +7114,10 @@
       <c r="A430" s="1">
         <v>888893</v>
       </c>
-      <c r="B430" s="2" t="s">
+      <c r="B430" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C430" s="2" t="s">
+      <c r="C430" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7132,10 +7125,10 @@
       <c r="A431" s="1">
         <v>888894</v>
       </c>
-      <c r="B431" s="2" t="s">
+      <c r="B431" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C431" s="2" t="s">
+      <c r="C431" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7143,10 +7136,10 @@
       <c r="A432" s="1">
         <v>888895</v>
       </c>
-      <c r="B432" s="2" t="s">
+      <c r="B432" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C432" s="2" t="s">
+      <c r="C432" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7154,10 +7147,10 @@
       <c r="A433" s="1">
         <v>888896</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B433" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C433" s="2" t="s">
+      <c r="C433" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7165,10 +7158,10 @@
       <c r="A434" s="1">
         <v>888897</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B434" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C434" s="2" t="s">
+      <c r="C434" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7176,10 +7169,10 @@
       <c r="A435" s="1">
         <v>888898</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B435" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C435" s="2" t="s">
+      <c r="C435" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7187,10 +7180,10 @@
       <c r="A436" s="1">
         <v>888899</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B436" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C436" s="2" t="s">
+      <c r="C436" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7198,10 +7191,10 @@
       <c r="A437" s="1">
         <v>888900</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B437" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C437" s="2" t="s">
+      <c r="C437" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7209,10 +7202,10 @@
       <c r="A438" s="1">
         <v>888901</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="B438" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C438" s="2" t="s">
+      <c r="C438" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7220,10 +7213,10 @@
       <c r="A439" s="1">
         <v>888902</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B439" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C439" s="2" t="s">
+      <c r="C439" s="1" t="s">
         <v>4</v>
       </c>
     </row>
